--- a/LAPR3-G103-2021-Self-Assessment.xlsx
+++ b/LAPR3-G103-2021-Self-Assessment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RICARDO_MILOS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\OneDrive\Documentos\lapr3-2021-g103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC789C00-FBCB-45AA-9691-8DF98929E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9548DB5-AB75-4B88-B5D5-501ED0E92FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5ECC33D7-267E-3941-AADB-18CFA00ADDCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -572,7 +572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -624,6 +624,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1133,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1371,6 +1379,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2067,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51149F-37F8-9041-812D-F0949B9CB00F}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2322,7 +2333,9 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="39">
+        <v>3</v>
+      </c>
       <c r="I14" s="38"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -2333,9 +2346,9 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="54" t="e">
+      <c r="S14" s="54">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2350,7 +2363,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="39"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="85"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -2609,9 +2622,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H25" s="49" t="e">
+      <c r="H25" s="49">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="I25" s="49" t="e">
         <f t="shared" si="1"/>
@@ -2734,7 +2747,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5042,15 +5056,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -5234,6 +5239,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
@@ -5251,14 +5265,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA1CEFC-B112-44A5-8B0C-097F64092DA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5274,4 +5280,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>